--- a/biology/Histoire de la zoologie et de la botanique/Charles_Johnson_Maynard/Charles_Johnson_Maynard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Johnson_Maynard/Charles_Johnson_Maynard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Johnson Maynard est un naturaliste américain, né en 1845 à Newton (Massachusetts) et mort le 15 octobre 1929.
 Ce taxidermiste autodidacte a donné des conférences et fait paraître de nombreux ouvrages, souvent auto-édités. Ses observations de terrain sont réputées.
@@ -512,13 +524,15 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1870 : The Naturalist's Guide in Collecting and Preserving Objects of Natural History, with a Complete Catalogue of the Birds of Eastern Massachusetts, The Naturalists Agency, Salem et Estes &amp; Lauriat, Boston[1]
-1881 : The Birds of Eastern North America, Maynard, Newtonville [2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1870 : The Naturalist's Guide in Collecting and Preserving Objects of Natural History, with a Complete Catalogue of the Birds of Eastern Massachusetts, The Naturalists Agency, Salem et Estes &amp; Lauriat, Boston
+1881 : The Birds of Eastern North America, Maynard, Newtonville 
 1883 : The Naturalist's Guide in Collecting and Preserving Objects of Natural History, illustré par Edwin Lord Weeks, Boston, S. E. Cassino &amp; Co.
-1916 : A Field Ornithology of the Birds of Eastern North America, Maynard, Newtonville[3]
-1907 : Directory to the Birds of Eastern North America, Maynard, Newtonville[4]</t>
+1916 : A Field Ornithology of the Birds of Eastern North America, Maynard, Newtonville
+1907 : Directory to the Birds of Eastern North America, Maynard, Newtonville</t>
         </is>
       </c>
     </row>
